--- a/Our_Labs/Lab_7/Obliczenia.xlsx
+++ b/Our_Labs/Lab_7/Obliczenia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4ACF3E17-1820-46D2-B53A-BD442759E809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36113062-CB14-4EB3-9041-32294B7743F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{176310E5-297C-410E-9B46-6F23EF82FCAC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{176310E5-297C-410E-9B46-6F23EF82FCAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <r>
       <t>ciśnienie w labo    p</t>
@@ -179,6 +179,15 @@
     </r>
   </si>
   <si>
+    <t>r, mm</t>
+  </si>
+  <si>
+    <t>l, mm</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
     <r>
       <t>η</t>
     </r>
@@ -193,22 +202,64 @@
       </rPr>
       <t>i</t>
     </r>
-  </si>
-  <si>
-    <t>r, mm</t>
-  </si>
-  <si>
-    <t>l, mm</t>
-  </si>
-  <si>
-    <t>g</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>(N*s/m^2)</t>
+    </r>
+  </si>
+  <si>
+    <t>u(t)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">u(V) </t>
+  </si>
+  <si>
+    <t>u(∆h)</t>
+  </si>
+  <si>
+    <t>u(ηi)</t>
+  </si>
+  <si>
+    <r>
+      <t>śr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">w  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ηi</t>
+    </r>
+  </si>
+  <si>
+    <t>u(śrw  ηi)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,7 +268,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -226,6 +276,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <vertAlign val="subscript"/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -290,6 +341,14 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -370,23 +429,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -401,6 +450,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -715,261 +773,429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E80AAF-A2A7-4971-8FEE-49C087C4346B}">
-  <dimension ref="B2:H17"/>
+  <dimension ref="B2:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="1">
         <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" ht="15.6" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
       <c r="E3" s="1">
         <v>985</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4">
         <v>9.81</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" ht="16.8" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>1</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="5">
         <v>150</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="5">
         <v>74.239999999999995</v>
       </c>
       <c r="G7">
-        <f t="shared" ref="G7:G10" si="0">(PI()*((0.4*10^-3)^4)*(997)*9.81*D7*(0.01)*E7)/(8*(0.1*C7*10^-6))</f>
-        <v>1.9465730762073728E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <f>(((PI()*((0.4*10^-3)^4)*(997)*9.81*D7*(0.01)*E7))/(8*(0.1*C7*10^-6)))*(10^6)</f>
+        <v>19.465730762073729</v>
+      </c>
+      <c r="H7">
+        <f>(0.01 * (E7*0.03))</f>
+        <v>2.2272E-2</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>0.2</v>
+      </c>
+      <c r="K7">
+        <f>SQRT(   ((((PI()*((0.4*10^-3)^4)*(997)*9.81*D7*(0.01)))/(8*(0.1*C7*10^-6)))*(10^6)*H7)^2    +     ((((PI()*((0.4*10^-3)^4)*(997)*9.81*D7*(0.01)*E7))/(8*(0.1*(C7^2)*10^-6)))*(10^6)*I7)^2   +    ((((PI()*((0.4*10^-3)^4)*(997)*9.81*D7*(0.01)*E7))/(8*(0.1*C7*10^-6)))*(10^6)*J7)^2  )</f>
+        <v>3.9468515770091583</v>
+      </c>
+      <c r="L7">
+        <f xml:space="preserve"> (SUM(G7*(1/(K7^2)),G8*(1/(K8^2)),G9*(1/(K9^2)),G10*(1/(K10^2)),G11*(1/(K11^2))))/ (SUM((1/(K7^2)),(1/(K8^2)),(1/(K9^2)),(1/(K10^2)),(1/(K11^2))))</f>
+        <v>20.248889862037544</v>
+      </c>
+      <c r="M7">
+        <f xml:space="preserve"> SQRT( 1/(SUM((1/(K7^2)),(1/(K8^2)),(1/(K9^2)),(1/(K10^2)),(1/(K11^2)))))</f>
+        <v>1.8371714289873049</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="5">
         <v>150</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="5">
         <v>4</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="5">
         <v>82.37</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>2.1597417064547594E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G8:G16" si="0">(((PI()*((0.4*10^-3)^4)*(997)*9.81*D8*(0.01)*E8))/(8*(0.1*C8*10^-6)))*(10^6)</f>
+        <v>21.597417064547596</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H16" si="1">(0.01 * (E8*0.03))</f>
+        <v>2.4711E-2</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>0.2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K16" si="2">SQRT(   ((((PI()*((0.4*10^-3)^4)*(997)*9.81*D8*(0.01)))/(8*(0.1*C8*10^-6)))*(10^6)*H8)^2    +     ((((PI()*((0.4*10^-3)^4)*(997)*9.81*D8*(0.01)*E8))/(8*(0.1*(C8^2)*10^-6)))*(10^6)*I8)^2   +    ((((PI()*((0.4*10^-3)^4)*(997)*9.81*D8*(0.01)*E8))/(8*(0.1*C8*10^-6)))*(10^6)*J8)^2  )</f>
+        <v>4.3790701023470424</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="5">
         <v>150</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>4</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="5">
         <v>76.28</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>2.0000618837971228E-5</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+        <v>20.000618837971228</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>2.2883999999999998E-2</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>0.2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="2"/>
+        <v>4.0553049339205085</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>4</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="5">
         <v>150</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <v>4</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="5">
         <v>77.75</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>2.0386052892662077E-5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+        <v>20.386052892662075</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>2.3325000000000002E-2</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>0.2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="2"/>
+        <v>4.1334551469889824</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>5</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="5">
         <v>150</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>4</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>76.41</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G10:G16" si="1">(PI()*((0.4*10^-3)^4)*(997)*9.81*D11*(0.01)*E11)/(8*(0.1*C11*10^-6))</f>
-        <v>2.0034704842807836E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>20.034704842807837</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>2.2922999999999999E-2</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="2"/>
+        <v>4.062216177253096</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <v>6</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="5">
         <v>200</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="5">
         <v>4</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="5">
         <v>104.56</v>
       </c>
       <c r="G12">
+        <f t="shared" si="0"/>
+        <v>20.561726917589198</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="1"/>
-        <v>2.0561726917589197E-5</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3.1368E-2</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>0.2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="2"/>
+        <v>4.1443531446537802</v>
+      </c>
+      <c r="L12">
+        <f xml:space="preserve"> (SUM(G12*(1/(K12^2)),G13*(1/(K13^2)),G14*(1/(K14^2)),G15*(1/(K15^2)),G16*(1/(K16^2))))/ (SUM((1/(K12^2)),(1/(K13^2)),(1/(K14^2)),(1/(K15^2)),(1/(K16^2))))</f>
+        <v>21.039411933652975</v>
+      </c>
+      <c r="M12">
+        <f xml:space="preserve"> SQRT( 1/(SUM((1/(K12^2)),(1/(K13^2)),(1/(K14^2)),(1/(K15^2)),(1/(K16^2)))))</f>
+        <v>1.8973621232670315</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>7</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="5">
         <v>200</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="5">
         <v>4</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="5">
         <v>109.43</v>
       </c>
       <c r="G13">
+        <f t="shared" si="0"/>
+        <v>21.519412553479206</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="1"/>
-        <v>2.1519412553479207E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3.2829000000000004E-2</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
+        <v>0.2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="2"/>
+        <v>4.3373810694286838</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>8</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="5">
         <v>200</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="5">
         <v>4</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="5">
         <v>106.32</v>
       </c>
       <c r="G14">
+        <f t="shared" si="0"/>
+        <v>20.90783096669934</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="1"/>
-        <v>2.0907830966699342E-5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3.1895999999999994E-2</v>
+      </c>
+      <c r="I14">
+        <v>5</v>
+      </c>
+      <c r="J14">
+        <v>0.2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>4.2141127232171938</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <v>9</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="5">
         <v>200</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="5">
         <v>4</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="5">
         <v>112.4</v>
       </c>
       <c r="G15">
+        <f t="shared" si="0"/>
+        <v>22.10346313635258</v>
+      </c>
+      <c r="H15">
         <f t="shared" si="1"/>
-        <v>2.210346313635258E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3.372E-2</v>
+      </c>
+      <c r="I15">
+        <v>5</v>
+      </c>
+      <c r="J15">
+        <v>0.2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="2"/>
+        <v>4.4551003582544464</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <v>10</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="5">
         <v>200</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="5">
         <v>4</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="5">
         <v>103.25</v>
       </c>
       <c r="G16">
+        <f t="shared" si="0"/>
+        <v>20.304115381035622</v>
+      </c>
+      <c r="H16">
         <f t="shared" si="1"/>
-        <v>2.0304115381035622E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
+        <v>3.0974999999999999E-2</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>0.2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="2"/>
+        <v>4.0924298219730568</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Our_Labs/Lab_7/Obliczenia.xlsx
+++ b/Our_Labs/Lab_7/Obliczenia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36113062-CB14-4EB3-9041-32294B7743F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CF3430-1B90-4942-917F-CC36319B0284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{176310E5-297C-410E-9B46-6F23EF82FCAC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <r>
       <t>ciśnienie w labo    p</t>
@@ -254,12 +254,27 @@
   <si>
     <t>u(śrw  ηi)</t>
   </si>
+  <si>
+    <t>prędkość cząstek powietrza</t>
+  </si>
+  <si>
+    <t>v , cm/s</t>
+  </si>
+  <si>
+    <t>droga swobodna cząsteczek</t>
+  </si>
+  <si>
+    <t>λ</t>
+  </si>
+  <si>
+    <t>(3*L7)/(pp * B21)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +365,13 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -429,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -459,6 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -773,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E80AAF-A2A7-4971-8FEE-49C087C4346B}">
-  <dimension ref="B2:M16"/>
+  <dimension ref="B2:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -893,12 +916,12 @@
         <v>3.9468515770091583</v>
       </c>
       <c r="L7">
-        <f xml:space="preserve"> (SUM(G7*(1/(K7^2)),G8*(1/(K8^2)),G9*(1/(K9^2)),G10*(1/(K10^2)),G11*(1/(K11^2))))/ (SUM((1/(K7^2)),(1/(K8^2)),(1/(K9^2)),(1/(K10^2)),(1/(K11^2))))</f>
-        <v>20.248889862037544</v>
+        <f xml:space="preserve"> (SUM(G7*(1/(K7^2)),G8*(1/(K8^2)),G9*(1/(K9^2)),G10*(1/(K10^2)),G11*(1/(K11^2)),G12*(1/(K12^2)),G13*(1/(K13^2)),G14*(1/(K14^2)),G15*(1/(K15^2)),G16*(1/(K16^2))))/ (SUM((1/(K7^2)),(1/(K8^2)),(1/(K9^2)),(1/(K10^2)),(1/(K11^2)),(1/(K12^2)),(1/(K13^2)),(1/(K14^2)),(1/(K15^2)),(1/(K16^2))))</f>
+        <v>20.631413104873427</v>
       </c>
       <c r="M7">
-        <f xml:space="preserve"> SQRT( 1/(SUM((1/(K7^2)),(1/(K8^2)),(1/(K9^2)),(1/(K10^2)),(1/(K11^2)))))</f>
-        <v>1.8371714289873049</v>
+        <f xml:space="preserve"> SQRT( 1/(SUM((1/(K7^2)),(1/(K8^2)),(1/(K9^2)),(1/(K10^2)),(1/(K11^2)),(1/(K12^2)),(1/(K13^2)),(1/(K14^2)),(1/(K15^2)),(1/(K16^2)))))</f>
+        <v>1.3198425974988139</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
@@ -1060,14 +1083,6 @@
         <f t="shared" si="2"/>
         <v>4.1443531446537802</v>
       </c>
-      <c r="L12">
-        <f xml:space="preserve"> (SUM(G12*(1/(K12^2)),G13*(1/(K13^2)),G14*(1/(K14^2)),G15*(1/(K15^2)),G16*(1/(K16^2))))/ (SUM((1/(K12^2)),(1/(K13^2)),(1/(K14^2)),(1/(K15^2)),(1/(K16^2))))</f>
-        <v>21.039411933652975</v>
-      </c>
-      <c r="M12">
-        <f xml:space="preserve"> SQRT( 1/(SUM((1/(K12^2)),(1/(K13^2)),(1/(K14^2)),(1/(K15^2)),(1/(K16^2)))))</f>
-        <v>1.8973621232670315</v>
-      </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
@@ -1195,6 +1210,31 @@
       <c r="K16">
         <f t="shared" si="2"/>
         <v>4.0924298219730568</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f>SQRT((8*8.31*296.15)/(PI()*28.87*10^-3))</f>
+        <v>465.91108740640789</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Our_Labs/Lab_7/Obliczenia.xlsx
+++ b/Our_Labs/Lab_7/Obliczenia.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72CF3430-1B90-4942-917F-CC36319B0284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9717B7-385E-4E2C-AE37-7EB8C66EE961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{176310E5-297C-410E-9B46-6F23EF82FCAC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{176310E5-297C-410E-9B46-6F23EF82FCAC}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <r>
       <t>ciśnienie w labo    p</t>
@@ -268,6 +268,71 @@
   </si>
   <si>
     <t>(3*L7)/(pp * B21)</t>
+  </si>
+  <si>
+    <r>
+      <t>u(p</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , (kg/m3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>gęstość powietrza ρ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>p ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (kg/m3)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -451,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -472,6 +537,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -481,7 +547,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -796,25 +864,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E80AAF-A2A7-4971-8FEE-49C087C4346B}">
-  <dimension ref="B2:M21"/>
+  <dimension ref="B2:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="1">
         <v>23</v>
       </c>
@@ -825,7 +894,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:18" ht="18" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,7 +910,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G4" t="s">
         <v>8</v>
       </c>
@@ -849,7 +918,7 @@
         <v>9.81</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="16.8" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:18" ht="18.75" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
@@ -883,8 +952,16 @@
       <c r="M6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>1</v>
       </c>
@@ -923,8 +1000,18 @@
         <f xml:space="preserve"> SQRT( 1/(SUM((1/(K7^2)),(1/(K8^2)),(1/(K9^2)),(1/(K10^2)),(1/(K11^2)),(1/(K12^2)),(1/(K13^2)),(1/(K14^2)),(1/(K15^2)),(1/(K16^2)))))</f>
         <v>1.3198425974988139</v>
       </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="O7" s="12">
+        <f xml:space="preserve"> (985*100 * 28.87 *10^-3)/(8.31* 296.15)</f>
+        <v>1.1555008083074954</v>
+      </c>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="2">
+        <f>SQRT(((985 * 28.87 *10^-3)/(8.31*296.15^2))^2+((985 * 28.87 *10^-3)/(8.31*296.15))^2*100)</f>
+        <v>0.11555008741819106</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -956,7 +1043,7 @@
         <v>4.3790701023470424</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -988,7 +1075,7 @@
         <v>4.0553049339205085</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>4</v>
       </c>
@@ -1020,7 +1107,7 @@
         <v>4.1334551469889824</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>5</v>
       </c>
@@ -1052,7 +1139,7 @@
         <v>4.062216177253096</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>6</v>
       </c>
@@ -1084,7 +1171,7 @@
         <v>4.1443531446537802</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>7</v>
       </c>
@@ -1116,7 +1203,7 @@
         <v>4.3373810694286838</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>8</v>
       </c>
@@ -1148,7 +1235,7 @@
         <v>4.2141127232171938</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>9</v>
       </c>
@@ -1180,7 +1267,7 @@
         <v>4.4551003582544464</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>10</v>
       </c>
@@ -1212,7 +1299,7 @@
         <v>4.0924298219730568</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -1220,15 +1307,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <f>SQRT((8*8.31*296.15)/(PI()*28.87*10^-3))</f>
         <v>465.91108740640789</v>
@@ -1238,8 +1325,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B2:D2"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="O7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Our_Labs/Lab_7/Obliczenia.xlsx
+++ b/Our_Labs/Lab_7/Obliczenia.xlsx
@@ -5,21 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ryzen\Desktop\Git_repos\Fizyka\Our_Labs\Lab_7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9717B7-385E-4E2C-AE37-7EB8C66EE961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B85B6EC-409F-484D-B88E-54735E4E9D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{176310E5-297C-410E-9B46-6F23EF82FCAC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,48 +28,72 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <r>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+  <si>
+    <t>temperatura    T, °C</t>
+  </si>
+  <si>
+    <t>r, mm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t>ciśnienie w labo    p</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve">0 , </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>hPa</t>
     </r>
   </si>
   <si>
-    <t>temperatura    T, °C</t>
+    <t>l, mm</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
   <si>
     <t>Lp.</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t>V</t>
     </r>
     <r>
@@ -80,11 +101,10 @@
         <b/>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve">i </t>
     </r>
@@ -92,22 +112,20 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>,</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> cm</t>
     </r>
@@ -115,24 +133,30 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>3</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
       <t>∆h</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
@@ -142,7 +166,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="238"/>
@@ -152,64 +176,67 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
       <t>t</t>
     </r>
     <r>
       <rPr>
         <vertAlign val="subscript"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t>i</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve"> , s</t>
     </r>
   </si>
   <si>
-    <t>r, mm</t>
-  </si>
-  <si>
-    <t>l, mm</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <r>
-      <t>η</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
+    <r>
+      <rPr>
         <sz val="11"/>
         <color rgb="FF202122"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
       </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
+      <t>η</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
         <sz val="11"/>
         <color rgb="FF202122"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="238"/>
       </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF202122"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
       <t>(N*s/m^2)</t>
     </r>
   </si>
@@ -223,7 +250,160 @@
     <t>u(∆h)</t>
   </si>
   <si>
-    <t>u(ηi)</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>gęstość powietrza ρ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>p ,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> (kg/m3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>u(p</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> , (kg/m3)</t>
+    </r>
+  </si>
+  <si>
+    <t>prędkość cząstek powietrza</t>
+  </si>
+  <si>
+    <t>droga swobodna cząsteczek</t>
+  </si>
+  <si>
+    <t>Średnica cząsteczek</t>
+  </si>
+  <si>
+    <t>v , cm/s</t>
+  </si>
+  <si>
+    <t>λ</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <r>
+      <t>Re</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>u(śrw  η</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -232,107 +412,67 @@
     <r>
       <rPr>
         <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
       </rPr>
       <t xml:space="preserve">w  </t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ηi</t>
-    </r>
-  </si>
-  <si>
-    <t>u(śrw  ηi)</t>
-  </si>
-  <si>
-    <t>prędkość cząstek powietrza</t>
-  </si>
-  <si>
-    <t>v , cm/s</t>
-  </si>
-  <si>
-    <t>droga swobodna cząsteczek</t>
-  </si>
-  <si>
-    <t>λ</t>
-  </si>
-  <si>
-    <t>(3*L7)/(pp * B21)</t>
-  </si>
-  <si>
-    <r>
-      <t>u(p</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>η</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>i</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>u(η</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t>)</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> , (kg/m3)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>gęstość powietrza ρ</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>p ,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (kg/m3)</t>
-    </r>
+  </si>
+  <si>
+    <t>u(v)</t>
+  </si>
+  <si>
+    <t>u(λ)</t>
+  </si>
+  <si>
+    <t>u(d)</t>
   </si>
 </sst>
 </file>
@@ -342,67 +482,47 @@
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
       <vertAlign val="subscript"/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <vertAlign val="subscript"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
     <font>
-      <vertAlign val="subscript"/>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -424,16 +544,29 @@
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
     </font>
@@ -447,12 +580,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFCC"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -462,53 +595,42 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,44 +640,108 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF202122"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -863,75 +1049,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E80AAF-A2A7-4971-8FEE-49C087C4346B}">
-  <dimension ref="B2:R21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:V21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B2" s="9" t="s">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="1">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
       </c>
       <c r="H2">
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="2:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="1">
+    <row r="3" spans="2:22" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4">
         <v>985</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="G4" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H4">
         <v>9.81</v>
       </c>
     </row>
-    <row r="6" spans="2:18" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5" t="s">
+    <row r="6" spans="2:22" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H6" t="s">
@@ -944,42 +1132,48 @@
         <v>12</v>
       </c>
       <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L6" t="s">
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="M6" t="s">
-        <v>15</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-      <c r="R6" s="2" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="8">
         <v>150</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="8">
         <v>4</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="8">
         <v>74.239999999999995</v>
       </c>
       <c r="G7">
-        <f>(((PI()*((0.4*10^-3)^4)*(997)*9.81*D7*(0.01)*E7))/(8*(0.1*C7*10^-6)))*(10^6)</f>
+        <f t="shared" ref="G7:G16" si="0">(((PI()*((0.4*10^-3)^4)*(997)*9.81*D7*(0.01)*E7))/(8*(0.1*C7*10^-6)))*(10^6)</f>
         <v>19.465730762073729</v>
       </c>
       <c r="H7">
-        <f>(0.01 * (E7*0.03))</f>
+        <f t="shared" ref="H7:H16" si="1">(0.01 * (E7*0.03))</f>
         <v>2.2272E-2</v>
       </c>
       <c r="I7">
@@ -989,47 +1183,55 @@
         <v>0.2</v>
       </c>
       <c r="K7">
-        <f>SQRT(   ((((PI()*((0.4*10^-3)^4)*(997)*9.81*D7*(0.01)))/(8*(0.1*C7*10^-6)))*(10^6)*H7)^2    +     ((((PI()*((0.4*10^-3)^4)*(997)*9.81*D7*(0.01)*E7))/(8*(0.1*(C7^2)*10^-6)))*(10^6)*I7)^2   +    ((((PI()*((0.4*10^-3)^4)*(997)*9.81*D7*(0.01)*E7))/(8*(0.1*C7*10^-6)))*(10^6)*J7)^2  )</f>
+        <f t="shared" ref="K7:K16" si="2">SQRT(   ((((PI()*((0.4*10^-3)^4)*(997)*9.81*D7*(0.01)))/(8*(0.1*C7*10^-6)))*(10^6)*H7)^2    +     ((((PI()*((0.4*10^-3)^4)*(997)*9.81*D7*(0.01)*E7))/(8*(0.1*(C7^2)*10^-6)))*(10^6)*I7)^2   +    ((((PI()*((0.4*10^-3)^4)*(997)*9.81*D7*(0.01)*E7))/(8*(0.1*C7*10^-6)))*(10^6)*J7)^2  )</f>
         <v>3.9468515770091583</v>
       </c>
       <c r="L7">
-        <f xml:space="preserve"> (SUM(G7*(1/(K7^2)),G8*(1/(K8^2)),G9*(1/(K9^2)),G10*(1/(K10^2)),G11*(1/(K11^2)),G12*(1/(K12^2)),G13*(1/(K13^2)),G14*(1/(K14^2)),G15*(1/(K15^2)),G16*(1/(K16^2))))/ (SUM((1/(K7^2)),(1/(K8^2)),(1/(K9^2)),(1/(K10^2)),(1/(K11^2)),(1/(K12^2)),(1/(K13^2)),(1/(K14^2)),(1/(K15^2)),(1/(K16^2))))</f>
+        <f>(SUM(G7*(1/(K7^2)),G8*(1/(K8^2)),G9*(1/(K9^2)),G10*(1/(K10^2)),G11*(1/(K11^2)),G12*(1/(K12^2)),G13*(1/(K13^2)),G14*(1/(K14^2)),G15*(1/(K15^2)),G16*(1/(K16^2))))/ (SUM((1/(K7^2)),(1/(K8^2)),(1/(K9^2)),(1/(K10^2)),(1/(K11^2)),(1/(K12^2)),(1/(K13^2)),(1/(K14^2)),(1/(K15^2)),(1/(K16^2))))</f>
         <v>20.631413104873427</v>
       </c>
       <c r="M7">
-        <f xml:space="preserve"> SQRT( 1/(SUM((1/(K7^2)),(1/(K8^2)),(1/(K9^2)),(1/(K10^2)),(1/(K11^2)),(1/(K12^2)),(1/(K13^2)),(1/(K14^2)),(1/(K15^2)),(1/(K16^2)))))</f>
+        <f>SQRT( 1/(SUM((1/(K7^2)),(1/(K8^2)),(1/(K9^2)),(1/(K10^2)),(1/(K11^2)),(1/(K12^2)),(1/(K13^2)),(1/(K14^2)),(1/(K15^2)),(1/(K16^2)))))</f>
         <v>1.3198425974988139</v>
       </c>
-      <c r="O7" s="12">
-        <f xml:space="preserve"> (985*100 * 28.87 *10^-3)/(8.31* 296.15)</f>
+      <c r="N7">
+        <f>(C7/(PI()*(H2*0.1)^2*E7))</f>
+        <v>401.96055805132494</v>
+      </c>
+      <c r="O7">
+        <f xml:space="preserve"> (S7*N7*H2)/L7</f>
+        <v>9.0050205940828079</v>
+      </c>
+      <c r="S7" s="2">
+        <f>(985*100 * 28.87 *10^-3)/(8.31* 296.15)</f>
         <v>1.1555008083074954</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="2">
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="7">
         <f>SQRT(((985 * 28.87 *10^-3)/(8.31*296.15^2))^2+((985 * 28.87 *10^-3)/(8.31*296.15))^2*100)</f>
         <v>0.11555008741819106</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B8" s="7">
         <v>2</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="8">
         <v>150</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="8">
         <v>4</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="8">
         <v>82.37</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G16" si="0">(((PI()*((0.4*10^-3)^4)*(997)*9.81*D8*(0.01)*E8))/(8*(0.1*C8*10^-6)))*(10^6)</f>
+        <f t="shared" si="0"/>
         <v>21.597417064547596</v>
       </c>
       <c r="H8">
-        <f t="shared" ref="H8:H16" si="1">(0.01 * (E8*0.03))</f>
+        <f t="shared" si="1"/>
         <v>2.4711E-2</v>
       </c>
       <c r="I8">
@@ -1039,21 +1241,29 @@
         <v>0.2</v>
       </c>
       <c r="K8">
-        <f t="shared" ref="K8:K16" si="2">SQRT(   ((((PI()*((0.4*10^-3)^4)*(997)*9.81*D8*(0.01)))/(8*(0.1*C8*10^-6)))*(10^6)*H8)^2    +     ((((PI()*((0.4*10^-3)^4)*(997)*9.81*D8*(0.01)*E8))/(8*(0.1*(C8^2)*10^-6)))*(10^6)*I8)^2   +    ((((PI()*((0.4*10^-3)^4)*(997)*9.81*D8*(0.01)*E8))/(8*(0.1*C8*10^-6)))*(10^6)*J8)^2  )</f>
+        <f t="shared" si="2"/>
         <v>4.3790701023470424</v>
       </c>
+      <c r="N8">
+        <f>(C8/(PI()*(H2*0.1)^2*E8))</f>
+        <v>362.28665569661717</v>
+      </c>
+      <c r="O8">
+        <f xml:space="preserve"> (S7*N8*H2)/L7</f>
+        <v>8.1162162062001642</v>
+      </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B9" s="7">
         <v>3</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="8">
         <v>150</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="8">
         <v>4</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="8">
         <v>76.28</v>
       </c>
       <c r="G9">
@@ -1074,18 +1284,26 @@
         <f t="shared" si="2"/>
         <v>4.0553049339205085</v>
       </c>
+      <c r="N9">
+        <f>(C9/(PI()*(H2*0.1)^2*E9))</f>
+        <v>391.21069519835294</v>
+      </c>
+      <c r="O9">
+        <f xml:space="preserve"> (S7*N9*H2)/L7</f>
+        <v>8.7641941387612441</v>
+      </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="7">
         <v>4</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="8">
         <v>150</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="8">
         <v>4</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="8">
         <v>77.75</v>
       </c>
       <c r="G10">
@@ -1106,18 +1324,26 @@
         <f t="shared" si="2"/>
         <v>4.1334551469889824</v>
       </c>
+      <c r="N10">
+        <f>(C10/(PI()*(H2*0.1)^2*E10))</f>
+        <v>383.81417144347733</v>
+      </c>
+      <c r="O10">
+        <f xml:space="preserve"> (S7*N10*H2)/L7</f>
+        <v>8.598491690092704</v>
+      </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B11" s="7">
         <v>5</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="8">
         <v>150</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="8">
         <v>4</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="8">
         <v>76.41</v>
       </c>
       <c r="G11">
@@ -1138,18 +1364,26 @@
         <f t="shared" si="2"/>
         <v>4.062216177253096</v>
       </c>
+      <c r="N11">
+        <f>(C11/(PI()*(H2*0.1)^2*E11))</f>
+        <v>390.54510966798011</v>
+      </c>
+      <c r="O11">
+        <f xml:space="preserve"> (S7*N11*H2)/L7</f>
+        <v>8.7492831946696459</v>
+      </c>
     </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B12" s="7">
         <v>6</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="8">
         <v>200</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="8">
         <v>4</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="8">
         <v>104.56</v>
       </c>
       <c r="G12">
@@ -1170,18 +1404,26 @@
         <f t="shared" si="2"/>
         <v>4.1443531446537802</v>
       </c>
+      <c r="N12">
+        <f>(C12/(PI()*(H2*0.1)^2*E12))</f>
+        <v>380.53496339875494</v>
+      </c>
+      <c r="O12">
+        <f xml:space="preserve"> (S7*N12*H2)/L7</f>
+        <v>8.5250284226563089</v>
+      </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B13" s="7">
         <v>7</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="8">
         <v>200</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="8">
         <v>4</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="8">
         <v>109.43</v>
       </c>
       <c r="G13">
@@ -1202,18 +1444,26 @@
         <f t="shared" si="2"/>
         <v>4.3373810694286838</v>
       </c>
+      <c r="N13">
+        <f>(C13/(PI()*(H2*0.1)^2*E13))</f>
+        <v>363.59988826623243</v>
+      </c>
+      <c r="O13">
+        <f xml:space="preserve"> (S7*N13*H2)/L7</f>
+        <v>8.1456362229091059</v>
+      </c>
     </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B14" s="7">
         <v>8</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="8">
         <v>200</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="8">
         <v>4</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="8">
         <v>106.32</v>
       </c>
       <c r="G14">
@@ -1234,18 +1484,26 @@
         <f t="shared" si="2"/>
         <v>4.2141127232171938</v>
       </c>
+      <c r="N14">
+        <f>(C14/(PI()*(H2*0.1)^2*E14))</f>
+        <v>374.23566377891103</v>
+      </c>
+      <c r="O14">
+        <f xml:space="preserve"> (S7*N14*H2)/L7</f>
+        <v>8.3839068084362633</v>
+      </c>
     </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B15" s="7">
         <v>9</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="8">
         <v>200</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="8">
         <v>4</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="8">
         <v>112.4</v>
       </c>
       <c r="G15">
@@ -1266,18 +1524,26 @@
         <f t="shared" si="2"/>
         <v>4.4551003582544464</v>
       </c>
+      <c r="N15">
+        <f>(C15/(PI()*(H2*0.1)^2*E15))</f>
+        <v>353.9923111474539</v>
+      </c>
+      <c r="O15">
+        <f xml:space="preserve"> (S7*N15*H2)/L7</f>
+        <v>7.9304001056311719</v>
+      </c>
     </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B16" s="7">
         <v>10</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="8">
         <v>200</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="8">
         <v>4</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="8">
         <v>103.25</v>
       </c>
       <c r="G16">
@@ -1298,38 +1564,87 @@
         <f t="shared" si="2"/>
         <v>4.0924298219730568</v>
       </c>
+      <c r="N16">
+        <f>(C16/(PI()*(H2*0.1)^2*E16))</f>
+        <v>385.36305833388678</v>
+      </c>
+      <c r="O16">
+        <f xml:space="preserve"> (S7*N16*H2)/L7</f>
+        <v>8.6331910108759669</v>
+      </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21">
         <f>SQRT((8*8.31*296.15)/(PI()*28.87*10^-3))</f>
         <v>465.91108740640789</v>
       </c>
-      <c r="E21" t="s">
-        <v>20</v>
+      <c r="C21">
+        <f>SQRT((8*8.31*296.15)/(PI()*28.87*10^-3))*0.1</f>
+        <v>46.591108740640792</v>
+      </c>
+      <c r="E21">
+        <f>(3*L7)/(S7 * B21)</f>
+        <v>0.11496798787768663</v>
+      </c>
+      <c r="F21">
+        <f>SQRT((((3)/(S7*B21))*M7)^2+(((3*L7)/(B21))*(1/(S7^2))*V7)^2+(((3*L7)/(S7))*(1/(B21^2)*C21)^2))</f>
+        <v>1.3738154295792651E-2</v>
+      </c>
+      <c r="H21">
+        <f>SQRT(((1.38*10^-23)*296.15)/(SQRT(2)*PI()*E21*985*100))</f>
+        <v>2.8500757036666062E-13</v>
+      </c>
+      <c r="I21">
+        <f>SQRT(   ((SQRT(((1.38*10^-23)*296.15)/(SQRT(2)*PI()*E21*985*100)))*0.1)^2)</f>
+        <v>2.850075703666606E-14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:I19"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Our_Labs/Lab_7/Obliczenia.xlsx
+++ b/Our_Labs/Lab_7/Obliczenia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Domin\OneDrive\Pulpit\Szkoła\fizyka\moje_sprawka\repo\Fizyka\Our_Labs\Lab_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B85B6EC-409F-484D-B88E-54735E4E9D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB5628EF-5C73-4412-A0A5-78E31A2F0E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
   <si>
     <t>temperatura    T, °C</t>
   </si>
@@ -473,6 +473,9 @@
   </si>
   <si>
     <t>u(d)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -640,12 +643,8 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -656,9 +655,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -668,6 +664,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1050,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:V21"/>
+  <dimension ref="B2:V37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="O7" sqref="O7:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1067,12 +1070,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="2">
         <v>23</v>
       </c>
       <c r="G2" t="s">
@@ -1083,12 +1086,12 @@
       </c>
     </row>
     <row r="3" spans="2:22" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4">
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="2">
         <v>985</v>
       </c>
       <c r="G3" t="s">
@@ -1107,19 +1110,19 @@
       </c>
     </row>
     <row r="6" spans="2:22" ht="16.8" x14ac:dyDescent="0.35">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
       <c r="H6" t="s">
@@ -1140,32 +1143,32 @@
       <c r="M6" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="12" t="s">
+      <c r="N6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="O6" t="s">
         <v>21</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="7" t="s">
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="5">
         <v>150</v>
       </c>
-      <c r="D7" s="8">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8">
+      <c r="D7" s="5">
+        <v>4</v>
+      </c>
+      <c r="E7" s="5">
         <v>74.239999999999995</v>
       </c>
       <c r="G7">
@@ -1195,35 +1198,35 @@
         <v>1.3198425974988139</v>
       </c>
       <c r="N7">
-        <f>(C7/(PI()*(H2*0.1)^2*E7))</f>
-        <v>401.96055805132494</v>
+        <f>(C7/(PI()*(H2*0.1)^2*E7))/100</f>
+        <v>4.0196055805132493</v>
       </c>
       <c r="O7">
-        <f xml:space="preserve"> (S7*N7*H2)/L7</f>
-        <v>9.0050205940828079</v>
-      </c>
-      <c r="S7" s="2">
+        <f xml:space="preserve"> ((S7*N7*H2)/(L7))*1000</f>
+        <v>90.050205940828093</v>
+      </c>
+      <c r="S7" s="11">
         <f>(985*100 * 28.87 *10^-3)/(8.31* 296.15)</f>
         <v>1.1555008083074954</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="7">
+      <c r="T7" s="11"/>
+      <c r="U7" s="11"/>
+      <c r="V7" s="1">
         <f>SQRT(((985 * 28.87 *10^-3)/(8.31*296.15^2))^2+((985 * 28.87 *10^-3)/(8.31*296.15))^2*100)</f>
         <v>0.11555008741819106</v>
       </c>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+      <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>150</v>
       </c>
-      <c r="D8" s="8">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8" s="5">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
         <v>82.37</v>
       </c>
       <c r="G8">
@@ -1245,25 +1248,25 @@
         <v>4.3790701023470424</v>
       </c>
       <c r="N8">
-        <f>(C8/(PI()*(H2*0.1)^2*E8))</f>
-        <v>362.28665569661717</v>
+        <f>(C8/(PI()*(H2*0.1)^2*E8))/100</f>
+        <v>3.6228665569661715</v>
       </c>
       <c r="O8">
-        <f xml:space="preserve"> (S7*N8*H2)/L7</f>
-        <v>8.1162162062001642</v>
+        <f xml:space="preserve"> ((S7*N8*H2)/L7)*1000</f>
+        <v>81.162162062001642</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
+      <c r="B9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>150</v>
       </c>
-      <c r="D9" s="8">
-        <v>4</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="5">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5">
         <v>76.28</v>
       </c>
       <c r="G9">
@@ -1285,25 +1288,25 @@
         <v>4.0553049339205085</v>
       </c>
       <c r="N9">
-        <f>(C9/(PI()*(H2*0.1)^2*E9))</f>
-        <v>391.21069519835294</v>
+        <f>(C9/(PI()*(H2*0.1)^2*E9))/100</f>
+        <v>3.9121069519835294</v>
       </c>
       <c r="O9">
-        <f xml:space="preserve"> (S7*N9*H2)/L7</f>
-        <v>8.7641941387612441</v>
+        <f>( (S7*N9*H2)/L7)*1000</f>
+        <v>87.641941387612434</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
-        <v>4</v>
-      </c>
-      <c r="C10" s="8">
+      <c r="B10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="5">
         <v>150</v>
       </c>
-      <c r="D10" s="8">
-        <v>4</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="5">
+        <v>4</v>
+      </c>
+      <c r="E10" s="5">
         <v>77.75</v>
       </c>
       <c r="G10">
@@ -1325,25 +1328,25 @@
         <v>4.1334551469889824</v>
       </c>
       <c r="N10">
-        <f>(C10/(PI()*(H2*0.1)^2*E10))</f>
-        <v>383.81417144347733</v>
+        <f>(C10/(PI()*(H2*0.1)^2*E10))/100</f>
+        <v>3.8381417144347734</v>
       </c>
       <c r="O10">
-        <f xml:space="preserve"> (S7*N10*H2)/L7</f>
-        <v>8.598491690092704</v>
+        <f xml:space="preserve"> ((S7*N10*H2)/L7)*1000</f>
+        <v>85.984916900927033</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
+      <c r="B11" s="1">
         <v>5</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>150</v>
       </c>
-      <c r="D11" s="8">
-        <v>4</v>
-      </c>
-      <c r="E11" s="8">
+      <c r="D11" s="5">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5">
         <v>76.41</v>
       </c>
       <c r="G11">
@@ -1365,25 +1368,25 @@
         <v>4.062216177253096</v>
       </c>
       <c r="N11">
-        <f>(C11/(PI()*(H2*0.1)^2*E11))</f>
-        <v>390.54510966798011</v>
+        <f>(C11/(PI()*(H2*0.1)^2*E11))/100</f>
+        <v>3.9054510966798013</v>
       </c>
       <c r="O11">
-        <f xml:space="preserve"> (S7*N11*H2)/L7</f>
-        <v>8.7492831946696459</v>
+        <f xml:space="preserve"> ((S7*N11*H2)/L7)*1000</f>
+        <v>87.492831946696469</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
+      <c r="B12" s="1">
         <v>6</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>200</v>
       </c>
-      <c r="D12" s="8">
-        <v>4</v>
-      </c>
-      <c r="E12" s="8">
+      <c r="D12" s="5">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5">
         <v>104.56</v>
       </c>
       <c r="G12">
@@ -1405,25 +1408,25 @@
         <v>4.1443531446537802</v>
       </c>
       <c r="N12">
-        <f>(C12/(PI()*(H2*0.1)^2*E12))</f>
-        <v>380.53496339875494</v>
+        <f>(C12/(PI()*(H2*0.1)^2*E12))/100</f>
+        <v>3.8053496339875492</v>
       </c>
       <c r="O12">
-        <f xml:space="preserve"> (S7*N12*H2)/L7</f>
-        <v>8.5250284226563089</v>
+        <f xml:space="preserve"> ((S7*N12*H2)/L7)*1000</f>
+        <v>85.250284226563082</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B13" s="7">
+      <c r="B13" s="1">
         <v>7</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="5">
         <v>200</v>
       </c>
-      <c r="D13" s="8">
-        <v>4</v>
-      </c>
-      <c r="E13" s="8">
+      <c r="D13" s="5">
+        <v>4</v>
+      </c>
+      <c r="E13" s="5">
         <v>109.43</v>
       </c>
       <c r="G13">
@@ -1445,25 +1448,25 @@
         <v>4.3373810694286838</v>
       </c>
       <c r="N13">
-        <f>(C13/(PI()*(H2*0.1)^2*E13))</f>
-        <v>363.59988826623243</v>
+        <f>(C13/(PI()*(H2*0.1)^2*E13))/100</f>
+        <v>3.6359988826623244</v>
       </c>
       <c r="O13">
-        <f xml:space="preserve"> (S7*N13*H2)/L7</f>
-        <v>8.1456362229091059</v>
+        <f>( (S7*N13*H2)/L7)*1000</f>
+        <v>81.456362229091084</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B14" s="7">
+      <c r="B14" s="1">
         <v>8</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="5">
         <v>200</v>
       </c>
-      <c r="D14" s="8">
-        <v>4</v>
-      </c>
-      <c r="E14" s="8">
+      <c r="D14" s="5">
+        <v>4</v>
+      </c>
+      <c r="E14" s="5">
         <v>106.32</v>
       </c>
       <c r="G14">
@@ -1485,25 +1488,25 @@
         <v>4.2141127232171938</v>
       </c>
       <c r="N14">
-        <f>(C14/(PI()*(H2*0.1)^2*E14))</f>
-        <v>374.23566377891103</v>
+        <f>(C14/(PI()*(H2*0.1)^2*E14))/100</f>
+        <v>3.7423566377891104</v>
       </c>
       <c r="O14">
-        <f xml:space="preserve"> (S7*N14*H2)/L7</f>
-        <v>8.3839068084362633</v>
+        <f xml:space="preserve"> ((S7*N14*H2)/L7)*1000</f>
+        <v>83.839068084362665</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B15" s="7">
+      <c r="B15" s="1">
         <v>9</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <v>200</v>
       </c>
-      <c r="D15" s="8">
-        <v>4</v>
-      </c>
-      <c r="E15" s="8">
+      <c r="D15" s="5">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5">
         <v>112.4</v>
       </c>
       <c r="G15">
@@ -1525,25 +1528,25 @@
         <v>4.4551003582544464</v>
       </c>
       <c r="N15">
-        <f>(C15/(PI()*(H2*0.1)^2*E15))</f>
-        <v>353.9923111474539</v>
+        <f>(C15/(PI()*(H2*0.1)^2*E15))/100</f>
+        <v>3.5399231114745389</v>
       </c>
       <c r="O15">
-        <f xml:space="preserve"> (S7*N15*H2)/L7</f>
-        <v>7.9304001056311719</v>
+        <f xml:space="preserve"> ((S7*N15*H2)/L7)*1000</f>
+        <v>79.304001056311705</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B16" s="7">
+      <c r="B16" s="1">
         <v>10</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <v>200</v>
       </c>
-      <c r="D16" s="8">
-        <v>4</v>
-      </c>
-      <c r="E16" s="8">
+      <c r="D16" s="5">
+        <v>4</v>
+      </c>
+      <c r="E16" s="5">
         <v>103.25</v>
       </c>
       <c r="G16">
@@ -1565,38 +1568,43 @@
         <v>4.0924298219730568</v>
       </c>
       <c r="N16">
-        <f>(C16/(PI()*(H2*0.1)^2*E16))</f>
-        <v>385.36305833388678</v>
+        <f>(C16/(PI()*(H2*0.1)^2*E16))/100</f>
+        <v>3.8536305833388678</v>
       </c>
       <c r="O16">
-        <f xml:space="preserve"> (S7*N16*H2)/L7</f>
-        <v>8.6331910108759669</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
+        <f xml:space="preserve"> ((S7*N16*H2)/L7)*1000</f>
+        <v>86.331910108759672</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B19" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="I19" s="12"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>18</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="F20" t="s">
@@ -1609,14 +1617,14 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B21">
         <f>SQRT((8*8.31*296.15)/(PI()*28.87*10^-3))</f>
         <v>465.91108740640789</v>
       </c>
       <c r="C21">
-        <f>SQRT((8*8.31*296.15)/(PI()*28.87*10^-3))*0.1</f>
-        <v>46.591108740640792</v>
+        <f>SQRT((((4*8.31)/(PI()*(SQRT(28.87*296.15*10^-3*8.31))))*1)^2)</f>
+        <v>1.2552532951154725</v>
       </c>
       <c r="E21">
         <f>(3*L7)/(S7 * B21)</f>
@@ -1624,15 +1632,169 @@
       </c>
       <c r="F21">
         <f>SQRT((((3)/(S7*B21))*M7)^2+(((3*L7)/(B21))*(1/(S7^2))*V7)^2+(((3*L7)/(S7))*(1/(B21^2)*C21)^2))</f>
-        <v>1.3738154295792651E-2</v>
+        <v>1.3648116338151396E-2</v>
       </c>
       <c r="H21">
-        <f>SQRT(((1.38*10^-23)*296.15)/(SQRT(2)*PI()*E21*985*100))</f>
-        <v>2.8500757036666062E-13</v>
+        <f>SQRT(((1.38*10^-23)*296.15)/(SQRT(2)*PI()*E21*985*100))*10^13</f>
+        <v>2.8500757036666062</v>
       </c>
       <c r="I21">
         <f>SQRT(   ((SQRT(((1.38*10^-23)*296.15)/(SQRT(2)*PI()*E21*985*100)))*0.1)^2)</f>
         <v>2.850075703666606E-14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
+        <v>150</v>
+      </c>
+      <c r="E28" s="5">
+        <v>4</v>
+      </c>
+      <c r="F28" s="5">
+        <v>74.239999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C29" s="1">
+        <v>2</v>
+      </c>
+      <c r="D29" s="5">
+        <v>150</v>
+      </c>
+      <c r="E29" s="5">
+        <v>4</v>
+      </c>
+      <c r="F29" s="5">
+        <v>82.37</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C30" s="1">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5">
+        <v>150</v>
+      </c>
+      <c r="E30" s="5">
+        <v>4</v>
+      </c>
+      <c r="F30" s="5">
+        <v>76.28</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C31" s="1">
+        <v>4</v>
+      </c>
+      <c r="D31" s="5">
+        <v>150</v>
+      </c>
+      <c r="E31" s="5">
+        <v>4</v>
+      </c>
+      <c r="F31" s="5">
+        <v>77.75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C32" s="1">
+        <v>5</v>
+      </c>
+      <c r="D32" s="5">
+        <v>150</v>
+      </c>
+      <c r="E32" s="5">
+        <v>4</v>
+      </c>
+      <c r="F32" s="5">
+        <v>76.41</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="1">
+        <v>6</v>
+      </c>
+      <c r="D33" s="5">
+        <v>200</v>
+      </c>
+      <c r="E33" s="5">
+        <v>4</v>
+      </c>
+      <c r="F33" s="5">
+        <v>104.56</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C34" s="1">
+        <v>7</v>
+      </c>
+      <c r="D34" s="5">
+        <v>200</v>
+      </c>
+      <c r="E34" s="5">
+        <v>4</v>
+      </c>
+      <c r="F34" s="5">
+        <v>109.43</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C35" s="1">
+        <v>8</v>
+      </c>
+      <c r="D35" s="5">
+        <v>200</v>
+      </c>
+      <c r="E35" s="5">
+        <v>4</v>
+      </c>
+      <c r="F35" s="5">
+        <v>106.32</v>
+      </c>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C36" s="1">
+        <v>9</v>
+      </c>
+      <c r="D36" s="5">
+        <v>200</v>
+      </c>
+      <c r="E36" s="5">
+        <v>4</v>
+      </c>
+      <c r="F36" s="5">
+        <v>112.4</v>
+      </c>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C37" s="1">
+        <v>10</v>
+      </c>
+      <c r="D37" s="5">
+        <v>200</v>
+      </c>
+      <c r="E37" s="5">
+        <v>4</v>
+      </c>
+      <c r="F37" s="5">
+        <v>103.25</v>
       </c>
     </row>
   </sheetData>
